--- a/public/database/Servicios.xlsx
+++ b/public/database/Servicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio Aguilera\Desktop\Trabajo (SPA)\ProyectoReact\public\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E1FA7C-2429-4F1D-89FC-EBBCDC41B91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31351647-3DF2-45D7-8926-5208F5C2340F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>Service Title</t>
   </si>
@@ -28,28 +28,31 @@
     <t>Service Image</t>
   </si>
   <si>
+    <t>Service Description</t>
+  </si>
+  <si>
+    <t>Service Background</t>
+  </si>
+  <si>
+    <t>Service Icon</t>
+  </si>
+  <si>
+    <t>Section Title</t>
+  </si>
+  <si>
+    <t>Section Description</t>
+  </si>
+  <si>
+    <t>Section Image</t>
+  </si>
+  <si>
+    <t>Section Items</t>
+  </si>
+  <si>
     <t>Service Link</t>
   </si>
   <si>
-    <t>Service Description</t>
-  </si>
-  <si>
-    <t>Service Background</t>
-  </si>
-  <si>
-    <t>Service Icon</t>
-  </si>
-  <si>
-    <t>Section Title</t>
-  </si>
-  <si>
-    <t>Section Description</t>
-  </si>
-  <si>
-    <t>Section Image</t>
-  </si>
-  <si>
-    <t>Section Items</t>
+    <t>IdServicio</t>
   </si>
   <si>
     <t>Plataformas web.</t>
@@ -181,56 +184,43 @@
     <t>/servicio8.jpg</t>
   </si>
   <si>
-    <t>Interfaces visuales modernas y fáciles de usar.
-Sistemas internos seguros y eficientes para manejar datos.
-Conexión con otras plataformas o sistemas que ya usas.
-Control total de usuarios, permisos y accesos.
-Paneles de administración intuitivos.</t>
-  </si>
-  <si>
-    <t>Desarrollo de APIs REST con C#, Python y Node.js.
-Integración con bases de datos SQL Server, MySQL, MongoDB y Oracle.
-Autenticación segura con JWT y OAuth 2.0.
-Documentación de endpoints con Swagger / OpenAPI.
-Uso de Blazor y React como frontends conectados a APIs robustas.</t>
-  </si>
-  <si>
-    <t>Actualización de librerías.
-Optimización de rendimiento.
-Revisión técnica periódica.
-Mejoras visuales y funcionales basadas en feedback de usuarios.
-Adaptación a nuevas tendencias tecnológicas y estándares de desarrollo.</t>
-  </si>
-  <si>
-    <t>Resolución rápida de errores técnicos.
-Prevención proactiva de incidentes.
-Monitoreo con Grafana, Sentry o Prometheus.
-Informes de estabilidad y rendimiento.
-Soporte con SLA y canales directos.</t>
-  </si>
-  <si>
-    <t>Levantamiento y análisis de necesidades reales del negocio.
-Diseño de arquitectura tecnológica adaptada al proyecto.
-Automatización de procesos internos para mayor eficiencia.
-Integración con sistemas existentes (ERP, CRM, etc.).</t>
-  </si>
-  <si>
-    <t>Estructura modular que permite agregar nuevas funciones fácilmente.
-Soporte para trabajar en distintos ambientes (desarrollo, pruebas y producción).
-Automatización de despliegues para actualizaciones rápidas y seguras.
-Preparado para manejar mayor cantidad de usuarios o datos sin perder rendimiento.</t>
-  </si>
-  <si>
-    <t>Carga masiva de productos desde archivos Excel o CSV.
-Control automático de stock, precios y disponibilidad.
-Descripciones optimizadas para buscadores (SEO).
-Clasificación por categorías, filtros y etiquetas personalizadas.</t>
-  </si>
-  <si>
-    <t>Webpay, PayPal, MercadoPago, OneClick.
-Boletas electrónicas automáticas.
-Facturas electrónicas.
-Envíos e integración logística.</t>
+    <t>Interfaces visuales modernas y fáciles de usar.; Sistemas internos seguros y eficientes para manejar datos.; Conexión con otras plataformas o sistemas que ya usas.; Control total de usuarios, permisos y accesos.; Paneles de administración intuitivos.</t>
+  </si>
+  <si>
+    <t>Desarrollo de APIs REST con C#, Python y Node.js.; Integración con bases de datos SQL Server, MySQL, MongoDB y Oracle.; Autenticación segura con JWT y OAuth 2.0.; Documentación de endpoints con Swagger / OpenAPI.; Uso de Blazor y React como frontends conectados a APIs robustas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualización de librerías.; Optimización de rendimiento.; Revisión técnica periódica.; Mejoras visuales y funcionales basadas en feedback de usuarios.; Adaptación a nuevas tendencias tecnológicas y estándares de desarrollo.; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolución rápida de errores técnicos.; Prevención proactiva de incidentes.; Monitoreo con Grafana, Sentry o Prometheus.; Informes de estabilidad y rendimiento.; Soporte con SLA y canales directos.; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levantamiento y análisis de necesidades reales del negocio.; Diseño de arquitectura tecnológica adaptada al proyecto.; Automatización de procesos internos para mayor eficiencia.; Integración con sistemas existentes (ERP, CRM, etc.).; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estructura modular que permite agregar nuevas funciones fácilmente.; Soporte para trabajar en distintos ambientes (desarrollo, pruebas y producción).; Automatización de despliegues para actualizaciones rápidas y seguras.; Preparado para manejar mayor cantidad de usuarios o datos sin perder rendimiento.; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carga masiva de productos desde archivos Excel o CSV.; Control automático de stock, precios y disponibilidad.; Descripciones optimizadas para buscadores (SEO).; Clasificación por categorías, filtros y etiquetas personalizadas.; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webpay, PayPal, MercadoPago, OneClick.; Boletas electrónicas automáticas.; Facturas electrónicas.; Envíos e integración logística.; </t>
+  </si>
+  <si>
+    <t>92d914e8-9529-443d-9068-ed8a1d60cf6d</t>
+  </si>
+  <si>
+    <t>f801c129-5699-4ced-acf5-0aa1a7b07d4a</t>
+  </si>
+  <si>
+    <t>a8b2f011-29d9-42e0-b389-900fcbd04666</t>
+  </si>
+  <si>
+    <t>641e41a8-8069-4cb3-83e7-ec8306ae27c6</t>
+  </si>
+  <si>
+    <t>Orden</t>
   </si>
 </sst>
 </file>
@@ -611,286 +601,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G8" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
         <v>38</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" t="s">
-        <v>60</v>
+      <c r="K9" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
